--- a/Analysis & Profiles/Colonial Pkwy 2017-1026/CPkwy Matrix Comparison and Profile 2017-1019.xlsx
+++ b/Analysis & Profiles/Colonial Pkwy 2017-1026/CPkwy Matrix Comparison and Profile 2017-1019.xlsx
@@ -1040,13 +1040,13 @@
       <sheetName val="about"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="12">
           <cell r="AY12">
@@ -1091,9 +1091,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1125,49 +1125,49 @@
       <sheetData sheetId="2">
         <row r="5">
           <cell r="D5">
-            <v>11533</v>
+            <v>11192</v>
           </cell>
           <cell r="G5">
-            <v>16299</v>
+            <v>15841</v>
           </cell>
         </row>
         <row r="6">
           <cell r="D6">
-            <v>8663</v>
+            <v>8219</v>
           </cell>
           <cell r="G6">
-            <v>12934</v>
+            <v>12402</v>
           </cell>
         </row>
         <row r="7">
           <cell r="D7">
-            <v>4626</v>
+            <v>4142</v>
           </cell>
           <cell r="G7">
-            <v>8084</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>80413</v>
-          </cell>
-          <cell r="G27">
-            <v>91034</v>
+            <v>7410</v>
           </cell>
         </row>
         <row r="28">
           <cell r="D28">
-            <v>55115</v>
+            <v>80418</v>
           </cell>
           <cell r="G28">
-            <v>74275</v>
+            <v>91046</v>
           </cell>
         </row>
         <row r="29">
           <cell r="D29">
-            <v>45006</v>
+            <v>55115</v>
           </cell>
           <cell r="G29">
+            <v>74274</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>45005</v>
+          </cell>
+          <cell r="G30">
             <v>58043</v>
           </cell>
         </row>
@@ -1587,7 +1587,7 @@
       <c r="F9" s="92"/>
       <c r="G9" s="99">
         <f>'DY CFRPM Profile Compare'!BD12</f>
-        <v>91034</v>
+        <v>91046</v>
       </c>
       <c r="H9" s="92">
         <f>30523+18229+20227+34530</f>
@@ -1600,7 +1600,7 @@
       <c r="M9" s="92"/>
       <c r="N9" s="99">
         <f>'DY CFRPM Profile Compare'!BD18</f>
-        <v>74275</v>
+        <v>74274</v>
       </c>
       <c r="O9" s="100">
         <f>33078+13541+15471+36296</f>
@@ -9742,16 +9742,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="94">
-        <f>[2]Summary!$G$27</f>
-        <v>91034</v>
+        <f>[2]Summary!$G$28</f>
+        <v>91046</v>
       </c>
       <c r="L12" s="51">
         <f>H12+J12</f>
         <v>0</v>
       </c>
       <c r="M12" s="94">
-        <f>[2]Summary!$G$27</f>
-        <v>91034</v>
+        <f>[2]Summary!$G$28</f>
+        <v>91046</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -9846,16 +9846,16 @@
         <v>0</v>
       </c>
       <c r="K18" s="94">
-        <f>[2]Summary!$G$28</f>
-        <v>74275</v>
+        <f>[2]Summary!$G$29</f>
+        <v>74274</v>
       </c>
       <c r="L18" s="51">
         <f>H18+J18</f>
         <v>0</v>
       </c>
       <c r="M18" s="94">
-        <f>[2]Summary!$G$28</f>
-        <v>74275</v>
+        <f>[2]Summary!$G$29</f>
+        <v>74274</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="94">
-        <f>[2]Summary!$G$29</f>
+        <f>[2]Summary!$G$30</f>
         <v>58043</v>
       </c>
       <c r="L24" s="51">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="94">
-        <f>[2]Summary!$G$29</f>
+        <f>[2]Summary!$G$30</f>
         <v>58043</v>
       </c>
     </row>
